--- a/me/7.Access-Salesforce-Data.xlsx
+++ b/me/7.Access-Salesforce-Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077E992-9361-48B4-9C3B-01F306A01A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92D77B-77E1-46FA-8022-A07638ECBF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="LDS - Create Record" sheetId="2" r:id="rId2"/>
     <sheet name="LDS - View Record" sheetId="3" r:id="rId3"/>
+    <sheet name="LDS-RecordViewFormAndRecordEdit" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="234">
   <si>
     <t>Working With Salesforce Data - An Overview</t>
   </si>
@@ -1012,6 +1013,355 @@
   </si>
   <si>
     <t>it is fetching the new data from server</t>
+  </si>
+  <si>
+    <t>LDS - RecordViewForm and RecordEditForm</t>
+  </si>
+  <si>
+    <t>This part we will be using some of the base component which are based on LDS to create our new record adding the existing record or view the existing record. These base components makes it</t>
+  </si>
+  <si>
+    <t>super easy to create a new record or edit record. There are very less of Javascript that we need to maintain, there is no extra module that we need to import. Most of that task can be done from</t>
+  </si>
+  <si>
+    <t>html markup itself. The better is that automatically take care of our field level security, there object record permission and our sharing settings. That will ensure that user will never get access to</t>
+  </si>
+  <si>
+    <t>unauthorized data</t>
+  </si>
+  <si>
+    <t>accountManagerLDSForms</t>
+  </si>
+  <si>
+    <t>accountManagerLDSForms.html</t>
+  </si>
+  <si>
+    <t>accountManagerLDSForms.js</t>
+  </si>
+  <si>
+    <t>accountManagerLDSForms.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\accountManagerLDSForms\accountManagerLDSForms.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\accountManagerLDSForms\accountManagerLDSForms.html</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-card title="Account Manager Via Forms"&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;lightning-input-field field-name='Phone'&gt;&lt;/lightning-input-field&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;lightning-input-field field-name='Website'&gt;&lt;/lightning-input-field&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;lightning-button type="submit" variant="brand" name="save" label="Create Account"&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;/lightning-button&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/lightning-record-edit-form&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;lightning-card title="View An Account Record"&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;div class="slds-box"&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;lightning-output-field field-name="Phone"&gt;&lt;/lightning-output-field&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;lightning-output-field field-name="Website"&gt;&lt;/lightning-output-field&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/lightning-record-view-form&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\accountManagerLDSForms\accountManagerLDSForms.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement, track } from 'lwc';</t>
+  </si>
+  <si>
+    <t>export default class AccountManagerLDSForms extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    successHandler(event){</t>
+  </si>
+  <si>
+    <t>        this.recordId = event.detail.id;</t>
+  </si>
+  <si>
+    <t>Create record</t>
+  </si>
+  <si>
+    <t>View record</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using lightning-record-edit-form to allow creation of new record. This lightning-record-edit-form accepts a object API name for which we want to create the record, we using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> API name</t>
+    </r>
+  </si>
+  <si>
+    <t>we can also handle the success response</t>
+  </si>
+  <si>
+    <t>In lightning-record-edit-form we need to use lightning-input-field for user input value and these lightning-input-field will automatically going to take care of our field type. That means if our field</t>
+  </si>
+  <si>
+    <t>is text field then they will create a input box with type text…</t>
+  </si>
+  <si>
+    <t>User click on this button then the account can be saved automatically in our backend</t>
+  </si>
+  <si>
+    <t>get the record ID from server as soon as the record is saved in the backend</t>
+  </si>
+  <si>
+    <t>this recordId property we use in our lightning-record-view-form</t>
+  </si>
+  <si>
+    <r>
+      <t>                    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lightning-record-edit-form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object-api-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="Account" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onsuccess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>={successHandler}&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lightning-record-view-form record-id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">={recordId} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object-api-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="Account"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Using lightning-record-view-form so that we can view an existing record from Salesforce. This lightning-record-view-form accepts record-id which we want to fetch from the server</t>
+  </si>
+  <si>
+    <t>in lightning-record-view-form we need to use lightning-output-field to show data</t>
+  </si>
+  <si>
+    <r>
+      <t>                            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lightning-input-field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field-name='Name'&gt;&lt;/lightning-input-field&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lightning-output-field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="Name"&gt;&lt;/lightning-output-field&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Test browser</t>
+  </si>
+  <si>
+    <t>We can see our account Name, Phone and Website will be automatically formatted as per the field type text, Phone and Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We prefer using the forms component over LDS whenever it is possible because they make our job super easy. We do not have to write any javascript and obviously we do not have to write any </t>
+  </si>
+  <si>
+    <t>server side controller as well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever we have to need to create a form on the UI go for these forms instead of using LDS and  obviously do not use Apex method until unless we have a complex logic which can not be handled </t>
+  </si>
+  <si>
+    <t>by LDS or these forms</t>
   </si>
 </sst>
 </file>
@@ -2925,6 +3275,205 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC54943-684B-3930-830F-A00AEA69C516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6162675" y="17659350"/>
+          <a:ext cx="1971675" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C1B84A-6F7F-BBBD-19DA-8D8E62711087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1295400" y="21478875"/>
+          <a:ext cx="2324100" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>113603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EC3F77-80B2-A2CA-27E6-BD6DD52020D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678996" y="27708225"/>
+          <a:ext cx="11336111" cy="5552378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>108466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490BD13E-1C65-E00D-2657-E588D9EC615D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750794" y="33830559"/>
+          <a:ext cx="11205882" cy="5520907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3297,7 +3846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998BBA0D-3CFD-42D5-95CE-D34AFD11FE1D}">
   <dimension ref="A2:T488"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A473" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
@@ -5717,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CA084C-A98F-45B6-B173-342945199183}">
   <dimension ref="A2:T276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V246" sqref="V246"/>
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5797,7 +6346,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="G14" s="13" t="s">
+      <c r="G14" t="s">
         <v>75</v>
       </c>
       <c r="L14" s="6"/>
@@ -5830,7 +6379,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" t="s">
         <v>78</v>
       </c>
       <c r="L17" s="6"/>
@@ -6205,245 +6754,76 @@
       <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
       <c r="P70" s="6"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
       <c r="P72" s="6"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
       <c r="P74" s="6"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
       <c r="P75" s="6"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
       <c r="P76" s="6"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
       <c r="P77" s="6"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
       <c r="P78" s="6"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
       <c r="P79" s="6"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
       <c r="P80" s="6"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
       <c r="P81" s="6"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
       <c r="P82" s="6"/>
       <c r="Q82" t="s">
         <v>80</v>
@@ -6456,38 +6836,12 @@
       <c r="B83" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
       <c r="P83" s="6"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
       <c r="P84" s="6"/>
       <c r="Q84" t="s">
         <v>80</v>
@@ -6500,19 +6854,6 @@
       <c r="B85" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
       <c r="P85" s="6"/>
       <c r="Q85" t="s">
         <v>80</v>
@@ -6525,93 +6866,28 @@
       <c r="B86" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
       <c r="P86" s="6"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
       <c r="P87" s="6"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
       <c r="P88" s="6"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
       <c r="P89" s="6"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
       <c r="P90" s="6"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -6657,15 +6933,6 @@
       <c r="B96" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
       <c r="L96" s="6"/>
       <c r="M96" t="s">
         <v>80</v>
@@ -6676,15 +6943,6 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
       <c r="L97" s="6"/>
       <c r="N97" t="s">
         <v>168</v>
@@ -6694,129 +6952,48 @@
       <c r="B98" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
       <c r="L98" s="6"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
       <c r="L99" s="6"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
       <c r="L101" s="6"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
       <c r="L103" s="6"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
       <c r="L104" s="6"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
       <c r="L105" s="6"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
       <c r="L106" s="6"/>
       <c r="N106" t="s">
         <v>177</v>
@@ -6826,15 +7003,6 @@
       <c r="B107" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
       <c r="L107" s="6"/>
       <c r="M107" t="s">
         <v>80</v>
@@ -6847,15 +7015,6 @@
       <c r="B108" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
       <c r="L108" s="6"/>
       <c r="M108" t="s">
         <v>80</v>
@@ -6866,15 +7025,6 @@
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
       <c r="L109" s="6"/>
       <c r="N109" s="7" t="s">
         <v>172</v>
@@ -6884,277 +7034,106 @@
       <c r="B110" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
       <c r="L111" s="6"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
       <c r="L112" s="6"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
       <c r="L113" s="6"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
       <c r="L114" s="6"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
       <c r="L115" s="6"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
       <c r="L116" s="6"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
       <c r="L117" s="6"/>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
       <c r="L118" s="6"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
       <c r="L119" s="6"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
       <c r="L120" s="6"/>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
       <c r="L121" s="6"/>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
       <c r="L122" s="6"/>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
       <c r="L123" s="6"/>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
       <c r="L124" s="6"/>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
       <c r="L125" s="6"/>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14"/>
       <c r="L126" s="6"/>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
       <c r="L127" s="6"/>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
       <c r="L128" s="6"/>
       <c r="M128" t="s">
         <v>80</v>
@@ -7167,118 +7146,46 @@
       <c r="B129" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
       <c r="L129" s="6"/>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
       <c r="L130" s="6"/>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
       <c r="L131" s="6"/>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
       <c r="L132" s="6"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
       <c r="L133" s="6"/>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
       <c r="L134" s="6"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
       <c r="L135" s="6"/>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
       <c r="L136" s="6"/>
       <c r="M136" t="s">
         <v>80</v>
@@ -7291,73 +7198,28 @@
       <c r="B137" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
       <c r="L137" s="6"/>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="K138" s="14"/>
       <c r="L138" s="6"/>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
       <c r="L139" s="6"/>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-      <c r="K140" s="14"/>
       <c r="L140" s="6"/>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
       <c r="L141" s="6"/>
       <c r="M141" t="s">
         <v>80</v>
@@ -7370,30 +7232,12 @@
       <c r="B142" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-      <c r="K142" s="14"/>
       <c r="L142" s="6"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
       <c r="L143" s="6"/>
       <c r="M143" t="s">
         <v>80</v>
@@ -7406,103 +7250,40 @@
       <c r="B144" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-      <c r="K144" s="14"/>
       <c r="L144" s="6"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B145" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-      <c r="K145" s="14"/>
       <c r="L145" s="6"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B146" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-      <c r="K146" s="14"/>
       <c r="L146" s="6"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-      <c r="K147" s="14"/>
       <c r="L147" s="6"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B148" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-      <c r="K148" s="14"/>
       <c r="L148" s="6"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B149" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
-      <c r="K149" s="14"/>
       <c r="L149" s="6"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B150" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
       <c r="L150" s="6"/>
       <c r="M150" t="s">
         <v>80</v>
@@ -7515,45 +7296,18 @@
       <c r="B151" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="14"/>
-      <c r="K151" s="14"/>
       <c r="L151" s="6"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B152" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="14"/>
-      <c r="K152" s="14"/>
       <c r="L152" s="6"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B153" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
-      <c r="K153" s="14"/>
       <c r="L153" s="6"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
@@ -7599,1201 +7353,232 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="14"/>
-      <c r="K159" s="14"/>
-      <c r="L159" s="14"/>
-      <c r="M159" s="14"/>
-      <c r="N159" s="14"/>
-      <c r="O159" s="14"/>
-      <c r="P159" s="14"/>
-      <c r="Q159" s="14"/>
-      <c r="R159" s="14"/>
-      <c r="S159" s="14"/>
       <c r="T159" s="6"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="14"/>
-      <c r="K160" s="14"/>
-      <c r="L160" s="14"/>
-      <c r="M160" s="14"/>
-      <c r="N160" s="14"/>
-      <c r="O160" s="14"/>
-      <c r="P160" s="14"/>
-      <c r="Q160" s="14"/>
-      <c r="R160" s="14"/>
-      <c r="S160" s="14"/>
       <c r="T160" s="6"/>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="14"/>
-      <c r="K161" s="14"/>
-      <c r="L161" s="14"/>
-      <c r="M161" s="14"/>
-      <c r="N161" s="14"/>
-      <c r="O161" s="14"/>
-      <c r="P161" s="14"/>
-      <c r="Q161" s="14"/>
-      <c r="R161" s="14"/>
-      <c r="S161" s="14"/>
       <c r="T161" s="6"/>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
-      <c r="K162" s="14"/>
-      <c r="L162" s="14"/>
-      <c r="M162" s="14"/>
-      <c r="N162" s="14"/>
-      <c r="O162" s="14"/>
-      <c r="P162" s="14"/>
-      <c r="Q162" s="14"/>
-      <c r="R162" s="14"/>
-      <c r="S162" s="14"/>
       <c r="T162" s="6"/>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="14"/>
-      <c r="K163" s="14"/>
-      <c r="L163" s="14"/>
-      <c r="M163" s="14"/>
-      <c r="N163" s="14"/>
-      <c r="O163" s="14"/>
-      <c r="P163" s="14"/>
-      <c r="Q163" s="14"/>
-      <c r="R163" s="14"/>
-      <c r="S163" s="14"/>
       <c r="T163" s="6"/>
     </row>
     <row r="164" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="14"/>
-      <c r="K164" s="14"/>
-      <c r="L164" s="14"/>
-      <c r="M164" s="14"/>
-      <c r="N164" s="14"/>
-      <c r="O164" s="14"/>
-      <c r="P164" s="14"/>
-      <c r="Q164" s="14"/>
-      <c r="R164" s="14"/>
-      <c r="S164" s="14"/>
       <c r="T164" s="6"/>
     </row>
     <row r="165" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="14"/>
-      <c r="K165" s="14"/>
-      <c r="L165" s="14"/>
-      <c r="M165" s="14"/>
-      <c r="N165" s="14"/>
-      <c r="O165" s="14"/>
-      <c r="P165" s="14"/>
-      <c r="Q165" s="14"/>
-      <c r="R165" s="14"/>
-      <c r="S165" s="14"/>
       <c r="T165" s="6"/>
     </row>
     <row r="166" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="14"/>
-      <c r="K166" s="14"/>
-      <c r="L166" s="14"/>
-      <c r="M166" s="14"/>
-      <c r="N166" s="14"/>
-      <c r="O166" s="14"/>
-      <c r="P166" s="14"/>
-      <c r="Q166" s="14"/>
-      <c r="R166" s="14"/>
-      <c r="S166" s="14"/>
       <c r="T166" s="6"/>
     </row>
     <row r="167" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="14"/>
-      <c r="K167" s="14"/>
-      <c r="L167" s="14"/>
-      <c r="M167" s="14"/>
-      <c r="N167" s="14"/>
-      <c r="O167" s="14"/>
-      <c r="P167" s="14"/>
-      <c r="Q167" s="14"/>
-      <c r="R167" s="14"/>
-      <c r="S167" s="14"/>
       <c r="T167" s="6"/>
     </row>
     <row r="168" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="14"/>
-      <c r="K168" s="14"/>
-      <c r="L168" s="14"/>
-      <c r="M168" s="14"/>
-      <c r="N168" s="14"/>
-      <c r="O168" s="14"/>
-      <c r="P168" s="14"/>
-      <c r="Q168" s="14"/>
-      <c r="R168" s="14"/>
-      <c r="S168" s="14"/>
       <c r="T168" s="6"/>
     </row>
     <row r="169" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="14"/>
-      <c r="K169" s="14"/>
-      <c r="L169" s="14"/>
-      <c r="M169" s="14"/>
-      <c r="N169" s="14"/>
-      <c r="O169" s="14"/>
-      <c r="P169" s="14"/>
-      <c r="Q169" s="14"/>
-      <c r="R169" s="14"/>
-      <c r="S169" s="14"/>
       <c r="T169" s="6"/>
     </row>
     <row r="170" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="14"/>
-      <c r="K170" s="14"/>
-      <c r="L170" s="14"/>
-      <c r="M170" s="14"/>
-      <c r="N170" s="14"/>
-      <c r="O170" s="14"/>
-      <c r="P170" s="14"/>
-      <c r="Q170" s="14"/>
-      <c r="R170" s="14"/>
-      <c r="S170" s="14"/>
       <c r="T170" s="6"/>
     </row>
     <row r="171" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="14"/>
-      <c r="K171" s="14"/>
-      <c r="L171" s="14"/>
-      <c r="M171" s="14"/>
-      <c r="N171" s="14"/>
-      <c r="O171" s="14"/>
-      <c r="P171" s="14"/>
-      <c r="Q171" s="14"/>
-      <c r="R171" s="14"/>
-      <c r="S171" s="14"/>
       <c r="T171" s="6"/>
     </row>
     <row r="172" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="14"/>
-      <c r="K172" s="14"/>
-      <c r="L172" s="14"/>
-      <c r="M172" s="14"/>
-      <c r="N172" s="14"/>
-      <c r="O172" s="14"/>
-      <c r="P172" s="14"/>
-      <c r="Q172" s="14"/>
-      <c r="R172" s="14"/>
-      <c r="S172" s="14"/>
       <c r="T172" s="6"/>
     </row>
     <row r="173" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="14"/>
-      <c r="K173" s="14"/>
-      <c r="L173" s="14"/>
-      <c r="M173" s="14"/>
-      <c r="N173" s="14"/>
-      <c r="O173" s="14"/>
-      <c r="P173" s="14"/>
-      <c r="Q173" s="14"/>
-      <c r="R173" s="14"/>
-      <c r="S173" s="14"/>
       <c r="T173" s="6"/>
     </row>
     <row r="174" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="14"/>
-      <c r="K174" s="14"/>
-      <c r="L174" s="14"/>
-      <c r="M174" s="14"/>
-      <c r="N174" s="14"/>
-      <c r="O174" s="14"/>
-      <c r="P174" s="14"/>
-      <c r="Q174" s="14"/>
-      <c r="R174" s="14"/>
-      <c r="S174" s="14"/>
       <c r="T174" s="6"/>
     </row>
     <row r="175" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="14"/>
-      <c r="K175" s="14"/>
-      <c r="L175" s="14"/>
-      <c r="M175" s="14"/>
-      <c r="N175" s="14"/>
-      <c r="O175" s="14"/>
-      <c r="P175" s="14"/>
-      <c r="Q175" s="14"/>
-      <c r="R175" s="14"/>
-      <c r="S175" s="14"/>
       <c r="T175" s="6"/>
     </row>
     <row r="176" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="14"/>
-      <c r="K176" s="14"/>
-      <c r="L176" s="14"/>
-      <c r="M176" s="14"/>
-      <c r="N176" s="14"/>
-      <c r="O176" s="14"/>
-      <c r="P176" s="14"/>
-      <c r="Q176" s="14"/>
-      <c r="R176" s="14"/>
-      <c r="S176" s="14"/>
       <c r="T176" s="6"/>
     </row>
     <row r="177" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="14"/>
-      <c r="K177" s="14"/>
-      <c r="L177" s="14"/>
-      <c r="M177" s="14"/>
-      <c r="N177" s="14"/>
-      <c r="O177" s="14"/>
-      <c r="P177" s="14"/>
-      <c r="Q177" s="14"/>
-      <c r="R177" s="14"/>
-      <c r="S177" s="14"/>
       <c r="T177" s="6"/>
     </row>
     <row r="178" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="14"/>
-      <c r="K178" s="14"/>
-      <c r="L178" s="14"/>
-      <c r="M178" s="14"/>
-      <c r="N178" s="14"/>
-      <c r="O178" s="14"/>
-      <c r="P178" s="14"/>
-      <c r="Q178" s="14"/>
-      <c r="R178" s="14"/>
-      <c r="S178" s="14"/>
       <c r="T178" s="6"/>
     </row>
     <row r="179" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="14"/>
-      <c r="K179" s="14"/>
-      <c r="L179" s="14"/>
-      <c r="M179" s="14"/>
-      <c r="N179" s="14"/>
-      <c r="O179" s="14"/>
-      <c r="P179" s="14"/>
-      <c r="Q179" s="14"/>
-      <c r="R179" s="14"/>
-      <c r="S179" s="14"/>
       <c r="T179" s="6"/>
     </row>
     <row r="180" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="14"/>
-      <c r="K180" s="14"/>
-      <c r="L180" s="14"/>
-      <c r="M180" s="14"/>
-      <c r="N180" s="14"/>
-      <c r="O180" s="14"/>
-      <c r="P180" s="14"/>
-      <c r="Q180" s="14"/>
-      <c r="R180" s="14"/>
-      <c r="S180" s="14"/>
       <c r="T180" s="6"/>
     </row>
     <row r="181" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="14"/>
-      <c r="K181" s="14"/>
-      <c r="L181" s="14"/>
-      <c r="M181" s="14"/>
-      <c r="N181" s="14"/>
-      <c r="O181" s="14"/>
-      <c r="P181" s="14"/>
-      <c r="Q181" s="14"/>
-      <c r="R181" s="14"/>
-      <c r="S181" s="14"/>
       <c r="T181" s="6"/>
     </row>
     <row r="182" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="14"/>
-      <c r="K182" s="14"/>
-      <c r="L182" s="14"/>
-      <c r="M182" s="14"/>
-      <c r="N182" s="14"/>
-      <c r="O182" s="14"/>
-      <c r="P182" s="14"/>
-      <c r="Q182" s="14"/>
-      <c r="R182" s="14"/>
-      <c r="S182" s="14"/>
       <c r="T182" s="6"/>
     </row>
     <row r="183" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="14"/>
-      <c r="K183" s="14"/>
-      <c r="L183" s="14"/>
-      <c r="M183" s="14"/>
-      <c r="N183" s="14"/>
-      <c r="O183" s="14"/>
-      <c r="P183" s="14"/>
-      <c r="Q183" s="14"/>
-      <c r="R183" s="14"/>
-      <c r="S183" s="14"/>
       <c r="T183" s="6"/>
     </row>
     <row r="184" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="14"/>
-      <c r="K184" s="14"/>
-      <c r="L184" s="14"/>
-      <c r="M184" s="14"/>
-      <c r="N184" s="14"/>
-      <c r="O184" s="14"/>
-      <c r="P184" s="14"/>
-      <c r="Q184" s="14"/>
-      <c r="R184" s="14"/>
-      <c r="S184" s="14"/>
       <c r="T184" s="6"/>
     </row>
     <row r="185" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="14"/>
-      <c r="K185" s="14"/>
-      <c r="L185" s="14"/>
-      <c r="M185" s="14"/>
-      <c r="N185" s="14"/>
-      <c r="O185" s="14"/>
-      <c r="P185" s="14"/>
-      <c r="Q185" s="14"/>
-      <c r="R185" s="14"/>
-      <c r="S185" s="14"/>
       <c r="T185" s="6"/>
     </row>
     <row r="186" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="14"/>
-      <c r="K186" s="14"/>
-      <c r="L186" s="14"/>
-      <c r="M186" s="14"/>
-      <c r="N186" s="14"/>
-      <c r="O186" s="14"/>
-      <c r="P186" s="14"/>
-      <c r="Q186" s="14"/>
-      <c r="R186" s="14"/>
-      <c r="S186" s="14"/>
       <c r="T186" s="6"/>
     </row>
     <row r="187" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B187" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="14"/>
-      <c r="K187" s="14"/>
-      <c r="L187" s="14"/>
-      <c r="M187" s="14"/>
-      <c r="N187" s="14"/>
-      <c r="O187" s="14"/>
-      <c r="P187" s="14"/>
-      <c r="Q187" s="14"/>
-      <c r="R187" s="14"/>
-      <c r="S187" s="14"/>
       <c r="T187" s="6"/>
     </row>
     <row r="188" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="14"/>
-      <c r="K188" s="14"/>
-      <c r="L188" s="14"/>
-      <c r="M188" s="14"/>
-      <c r="N188" s="14"/>
-      <c r="O188" s="14"/>
-      <c r="P188" s="14"/>
-      <c r="Q188" s="14"/>
-      <c r="R188" s="14"/>
-      <c r="S188" s="14"/>
       <c r="T188" s="6"/>
     </row>
     <row r="189" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="14"/>
-      <c r="K189" s="14"/>
-      <c r="L189" s="14"/>
-      <c r="M189" s="14"/>
-      <c r="N189" s="14"/>
-      <c r="O189" s="14"/>
-      <c r="P189" s="14"/>
-      <c r="Q189" s="14"/>
-      <c r="R189" s="14"/>
-      <c r="S189" s="14"/>
       <c r="T189" s="6"/>
     </row>
     <row r="190" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="14"/>
-      <c r="K190" s="14"/>
-      <c r="L190" s="14"/>
-      <c r="M190" s="14"/>
-      <c r="N190" s="14"/>
-      <c r="O190" s="14"/>
-      <c r="P190" s="14"/>
-      <c r="Q190" s="14"/>
-      <c r="R190" s="14"/>
-      <c r="S190" s="14"/>
       <c r="T190" s="6"/>
     </row>
     <row r="191" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="14"/>
-      <c r="K191" s="14"/>
-      <c r="L191" s="14"/>
-      <c r="M191" s="14"/>
-      <c r="N191" s="14"/>
-      <c r="O191" s="14"/>
-      <c r="P191" s="14"/>
-      <c r="Q191" s="14"/>
-      <c r="R191" s="14"/>
-      <c r="S191" s="14"/>
       <c r="T191" s="6"/>
     </row>
     <row r="192" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B192" s="5"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="14"/>
-      <c r="K192" s="14"/>
-      <c r="L192" s="14"/>
-      <c r="M192" s="14"/>
-      <c r="N192" s="14"/>
-      <c r="O192" s="14"/>
-      <c r="P192" s="14"/>
-      <c r="Q192" s="14"/>
-      <c r="R192" s="14"/>
-      <c r="S192" s="14"/>
       <c r="T192" s="6"/>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
-      <c r="G193" s="14"/>
-      <c r="H193" s="14"/>
-      <c r="I193" s="14"/>
-      <c r="J193" s="14"/>
-      <c r="K193" s="14"/>
-      <c r="L193" s="14"/>
-      <c r="M193" s="14"/>
-      <c r="N193" s="14"/>
-      <c r="O193" s="14"/>
-      <c r="P193" s="14"/>
-      <c r="Q193" s="14"/>
-      <c r="R193" s="14"/>
-      <c r="S193" s="14"/>
       <c r="T193" s="6"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
-      <c r="H194" s="14"/>
-      <c r="I194" s="14"/>
-      <c r="J194" s="14"/>
-      <c r="K194" s="14"/>
-      <c r="L194" s="14"/>
-      <c r="M194" s="14"/>
-      <c r="N194" s="14"/>
-      <c r="O194" s="14"/>
-      <c r="P194" s="14"/>
-      <c r="Q194" s="14"/>
-      <c r="R194" s="14"/>
-      <c r="S194" s="14"/>
       <c r="T194" s="6"/>
     </row>
     <row r="195" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
-      <c r="H195" s="14"/>
-      <c r="I195" s="14"/>
-      <c r="J195" s="14"/>
-      <c r="K195" s="14"/>
-      <c r="L195" s="14"/>
-      <c r="M195" s="14"/>
-      <c r="N195" s="14"/>
-      <c r="O195" s="14"/>
-      <c r="P195" s="14"/>
-      <c r="Q195" s="14"/>
-      <c r="R195" s="14"/>
-      <c r="S195" s="14"/>
       <c r="T195" s="6"/>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
-      <c r="G196" s="14"/>
-      <c r="H196" s="14"/>
-      <c r="I196" s="14"/>
-      <c r="J196" s="14"/>
-      <c r="K196" s="14"/>
-      <c r="L196" s="14"/>
-      <c r="M196" s="14"/>
-      <c r="N196" s="14"/>
-      <c r="O196" s="14"/>
-      <c r="P196" s="14"/>
-      <c r="Q196" s="14"/>
-      <c r="R196" s="14"/>
-      <c r="S196" s="14"/>
       <c r="T196" s="6"/>
     </row>
     <row r="197" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="14"/>
-      <c r="I197" s="14"/>
-      <c r="J197" s="14"/>
-      <c r="K197" s="14"/>
-      <c r="L197" s="14"/>
-      <c r="M197" s="14"/>
-      <c r="N197" s="14"/>
-      <c r="O197" s="14"/>
-      <c r="P197" s="14"/>
-      <c r="Q197" s="14"/>
-      <c r="R197" s="14"/>
-      <c r="S197" s="14"/>
       <c r="T197" s="6"/>
     </row>
     <row r="198" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B198" s="5"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
-      <c r="H198" s="14"/>
-      <c r="I198" s="14"/>
-      <c r="J198" s="14"/>
-      <c r="K198" s="14"/>
-      <c r="L198" s="14"/>
-      <c r="M198" s="14"/>
-      <c r="N198" s="14"/>
-      <c r="O198" s="14"/>
-      <c r="P198" s="14"/>
-      <c r="Q198" s="14"/>
-      <c r="R198" s="14"/>
-      <c r="S198" s="14"/>
       <c r="T198" s="6"/>
     </row>
     <row r="199" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
-      <c r="G199" s="14"/>
-      <c r="H199" s="14"/>
-      <c r="I199" s="14"/>
-      <c r="J199" s="14"/>
-      <c r="K199" s="14"/>
-      <c r="L199" s="14"/>
-      <c r="M199" s="14"/>
-      <c r="N199" s="14"/>
-      <c r="O199" s="14"/>
-      <c r="P199" s="14"/>
-      <c r="Q199" s="14"/>
-      <c r="R199" s="14"/>
-      <c r="S199" s="14"/>
       <c r="T199" s="6"/>
     </row>
     <row r="200" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
-      <c r="H200" s="14"/>
-      <c r="I200" s="14"/>
-      <c r="J200" s="14"/>
-      <c r="K200" s="14"/>
-      <c r="L200" s="14"/>
-      <c r="M200" s="14"/>
-      <c r="N200" s="14"/>
-      <c r="O200" s="14"/>
-      <c r="P200" s="14"/>
-      <c r="Q200" s="14"/>
-      <c r="R200" s="14"/>
-      <c r="S200" s="14"/>
       <c r="T200" s="6"/>
     </row>
     <row r="201" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
-      <c r="H201" s="14"/>
-      <c r="I201" s="14"/>
-      <c r="J201" s="14"/>
-      <c r="K201" s="14"/>
-      <c r="L201" s="14"/>
-      <c r="M201" s="14"/>
-      <c r="N201" s="14"/>
-      <c r="O201" s="14"/>
-      <c r="P201" s="14"/>
-      <c r="Q201" s="14"/>
-      <c r="R201" s="14"/>
-      <c r="S201" s="14"/>
       <c r="T201" s="6"/>
     </row>
     <row r="202" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="14"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
-      <c r="K202" s="14"/>
-      <c r="L202" s="14"/>
-      <c r="M202" s="14"/>
-      <c r="N202" s="14"/>
-      <c r="O202" s="14"/>
-      <c r="P202" s="14"/>
-      <c r="Q202" s="14"/>
-      <c r="R202" s="14"/>
-      <c r="S202" s="14"/>
       <c r="T202" s="6"/>
     </row>
     <row r="203" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
-      <c r="H203" s="14"/>
-      <c r="I203" s="14"/>
-      <c r="J203" s="14"/>
-      <c r="K203" s="14"/>
-      <c r="L203" s="14"/>
-      <c r="M203" s="14"/>
-      <c r="N203" s="14"/>
-      <c r="O203" s="14"/>
-      <c r="P203" s="14"/>
-      <c r="Q203" s="14"/>
-      <c r="R203" s="14"/>
-      <c r="S203" s="14"/>
       <c r="T203" s="6"/>
     </row>
     <row r="204" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
-      <c r="H204" s="14"/>
-      <c r="I204" s="14"/>
-      <c r="J204" s="14"/>
-      <c r="K204" s="14"/>
-      <c r="L204" s="14"/>
-      <c r="M204" s="14"/>
-      <c r="N204" s="14"/>
-      <c r="O204" s="14"/>
-      <c r="P204" s="14"/>
-      <c r="Q204" s="14"/>
-      <c r="R204" s="14"/>
-      <c r="S204" s="14"/>
       <c r="T204" s="6"/>
     </row>
     <row r="205" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
-      <c r="H205" s="14"/>
-      <c r="I205" s="14"/>
-      <c r="J205" s="14"/>
-      <c r="K205" s="14"/>
-      <c r="L205" s="14"/>
-      <c r="M205" s="14"/>
-      <c r="N205" s="14"/>
-      <c r="O205" s="14"/>
-      <c r="P205" s="14"/>
-      <c r="Q205" s="14"/>
-      <c r="R205" s="14"/>
-      <c r="S205" s="14"/>
       <c r="T205" s="6"/>
     </row>
     <row r="206" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
-      <c r="H206" s="14"/>
-      <c r="I206" s="14"/>
-      <c r="J206" s="14"/>
-      <c r="K206" s="14"/>
-      <c r="L206" s="14"/>
-      <c r="M206" s="14"/>
-      <c r="N206" s="14"/>
-      <c r="O206" s="14"/>
-      <c r="P206" s="14"/>
-      <c r="Q206" s="14"/>
-      <c r="R206" s="14"/>
-      <c r="S206" s="14"/>
       <c r="T206" s="6"/>
     </row>
     <row r="207" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="14"/>
-      <c r="G207" s="14"/>
-      <c r="H207" s="14"/>
-      <c r="I207" s="14"/>
-      <c r="J207" s="14"/>
-      <c r="K207" s="14"/>
-      <c r="L207" s="14"/>
-      <c r="M207" s="14"/>
-      <c r="N207" s="14"/>
-      <c r="O207" s="14"/>
-      <c r="P207" s="14"/>
-      <c r="Q207" s="14"/>
-      <c r="R207" s="14"/>
-      <c r="S207" s="14"/>
       <c r="T207" s="6"/>
     </row>
     <row r="208" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
-      <c r="H208" s="14"/>
-      <c r="I208" s="14"/>
-      <c r="J208" s="14"/>
-      <c r="K208" s="14"/>
-      <c r="L208" s="14"/>
-      <c r="M208" s="14"/>
-      <c r="N208" s="14"/>
-      <c r="O208" s="14"/>
-      <c r="P208" s="14"/>
-      <c r="Q208" s="14"/>
-      <c r="R208" s="14"/>
-      <c r="S208" s="14"/>
       <c r="T208" s="6"/>
     </row>
     <row r="209" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
-      <c r="H209" s="14"/>
-      <c r="I209" s="14"/>
-      <c r="J209" s="14"/>
-      <c r="K209" s="14"/>
-      <c r="L209" s="14"/>
-      <c r="M209" s="14"/>
-      <c r="N209" s="14"/>
-      <c r="O209" s="14"/>
-      <c r="P209" s="14"/>
-      <c r="Q209" s="14"/>
-      <c r="R209" s="14"/>
-      <c r="S209" s="14"/>
       <c r="T209" s="6"/>
     </row>
     <row r="210" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
-      <c r="G210" s="14"/>
-      <c r="H210" s="14"/>
-      <c r="I210" s="14"/>
-      <c r="J210" s="14"/>
-      <c r="K210" s="14"/>
-      <c r="L210" s="14"/>
-      <c r="M210" s="14"/>
-      <c r="N210" s="14"/>
-      <c r="O210" s="14"/>
-      <c r="P210" s="14"/>
-      <c r="Q210" s="14"/>
-      <c r="R210" s="14"/>
-      <c r="S210" s="14"/>
       <c r="T210" s="6"/>
     </row>
     <row r="211" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="14"/>
-      <c r="H211" s="14"/>
-      <c r="I211" s="14"/>
-      <c r="J211" s="14"/>
-      <c r="K211" s="14"/>
-      <c r="L211" s="14"/>
-      <c r="M211" s="14"/>
-      <c r="N211" s="14"/>
-      <c r="O211" s="14"/>
-      <c r="P211" s="14"/>
-      <c r="Q211" s="14"/>
-      <c r="R211" s="14"/>
-      <c r="S211" s="14"/>
       <c r="T211" s="6"/>
     </row>
     <row r="212" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
-      <c r="H212" s="14"/>
-      <c r="I212" s="14"/>
-      <c r="J212" s="14"/>
-      <c r="K212" s="14"/>
-      <c r="L212" s="14"/>
-      <c r="M212" s="14"/>
-      <c r="N212" s="14"/>
-      <c r="O212" s="14"/>
-      <c r="P212" s="14"/>
-      <c r="Q212" s="14"/>
-      <c r="R212" s="14"/>
-      <c r="S212" s="14"/>
       <c r="T212" s="6"/>
     </row>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
-      <c r="H213" s="14"/>
-      <c r="I213" s="14"/>
-      <c r="J213" s="14"/>
-      <c r="K213" s="14"/>
-      <c r="L213" s="14"/>
-      <c r="M213" s="14"/>
-      <c r="N213" s="14"/>
-      <c r="O213" s="14"/>
-      <c r="P213" s="14"/>
-      <c r="Q213" s="14"/>
-      <c r="R213" s="14"/>
-      <c r="S213" s="14"/>
       <c r="T213" s="6"/>
     </row>
     <row r="214" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
-      <c r="G214" s="14"/>
-      <c r="H214" s="14"/>
-      <c r="I214" s="14"/>
-      <c r="J214" s="14"/>
-      <c r="K214" s="14"/>
-      <c r="L214" s="14"/>
-      <c r="M214" s="14"/>
-      <c r="N214" s="14"/>
-      <c r="O214" s="14"/>
-      <c r="P214" s="14"/>
-      <c r="Q214" s="14"/>
-      <c r="R214" s="14"/>
-      <c r="S214" s="14"/>
       <c r="T214" s="6"/>
     </row>
     <row r="215" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
-      <c r="F215" s="14"/>
-      <c r="G215" s="14"/>
-      <c r="H215" s="14"/>
-      <c r="I215" s="14"/>
-      <c r="J215" s="14"/>
-      <c r="K215" s="14"/>
-      <c r="L215" s="14"/>
-      <c r="M215" s="14"/>
-      <c r="N215" s="14"/>
-      <c r="O215" s="14"/>
-      <c r="P215" s="14"/>
-      <c r="Q215" s="14"/>
-      <c r="R215" s="14"/>
-      <c r="S215" s="14"/>
       <c r="T215" s="6"/>
     </row>
     <row r="216" spans="2:20" x14ac:dyDescent="0.25">
@@ -8842,1201 +7627,232 @@
     </row>
     <row r="219" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
-      <c r="H219" s="14"/>
-      <c r="I219" s="14"/>
-      <c r="J219" s="14"/>
-      <c r="K219" s="14"/>
-      <c r="L219" s="14"/>
-      <c r="M219" s="14"/>
-      <c r="N219" s="14"/>
-      <c r="O219" s="14"/>
-      <c r="P219" s="14"/>
-      <c r="Q219" s="14"/>
-      <c r="R219" s="14"/>
-      <c r="S219" s="14"/>
       <c r="T219" s="6"/>
     </row>
     <row r="220" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
-      <c r="G220" s="14"/>
-      <c r="H220" s="14"/>
-      <c r="I220" s="14"/>
-      <c r="J220" s="14"/>
-      <c r="K220" s="14"/>
-      <c r="L220" s="14"/>
-      <c r="M220" s="14"/>
-      <c r="N220" s="14"/>
-      <c r="O220" s="14"/>
-      <c r="P220" s="14"/>
-      <c r="Q220" s="14"/>
-      <c r="R220" s="14"/>
-      <c r="S220" s="14"/>
       <c r="T220" s="6"/>
     </row>
     <row r="221" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B221" s="5"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="14"/>
-      <c r="G221" s="14"/>
-      <c r="H221" s="14"/>
-      <c r="I221" s="14"/>
-      <c r="J221" s="14"/>
-      <c r="K221" s="14"/>
-      <c r="L221" s="14"/>
-      <c r="M221" s="14"/>
-      <c r="N221" s="14"/>
-      <c r="O221" s="14"/>
-      <c r="P221" s="14"/>
-      <c r="Q221" s="14"/>
-      <c r="R221" s="14"/>
-      <c r="S221" s="14"/>
       <c r="T221" s="6"/>
     </row>
     <row r="222" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B222" s="5"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="14"/>
-      <c r="H222" s="14"/>
-      <c r="I222" s="14"/>
-      <c r="J222" s="14"/>
-      <c r="K222" s="14"/>
-      <c r="L222" s="14"/>
-      <c r="M222" s="14"/>
-      <c r="N222" s="14"/>
-      <c r="O222" s="14"/>
-      <c r="P222" s="14"/>
-      <c r="Q222" s="14"/>
-      <c r="R222" s="14"/>
-      <c r="S222" s="14"/>
       <c r="T222" s="6"/>
     </row>
     <row r="223" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B223" s="5"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="14"/>
-      <c r="H223" s="14"/>
-      <c r="I223" s="14"/>
-      <c r="J223" s="14"/>
-      <c r="K223" s="14"/>
-      <c r="L223" s="14"/>
-      <c r="M223" s="14"/>
-      <c r="N223" s="14"/>
-      <c r="O223" s="14"/>
-      <c r="P223" s="14"/>
-      <c r="Q223" s="14"/>
-      <c r="R223" s="14"/>
-      <c r="S223" s="14"/>
       <c r="T223" s="6"/>
     </row>
     <row r="224" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="14"/>
-      <c r="H224" s="14"/>
-      <c r="I224" s="14"/>
-      <c r="J224" s="14"/>
-      <c r="K224" s="14"/>
-      <c r="L224" s="14"/>
-      <c r="M224" s="14"/>
-      <c r="N224" s="14"/>
-      <c r="O224" s="14"/>
-      <c r="P224" s="14"/>
-      <c r="Q224" s="14"/>
-      <c r="R224" s="14"/>
-      <c r="S224" s="14"/>
       <c r="T224" s="6"/>
     </row>
     <row r="225" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
-      <c r="G225" s="14"/>
-      <c r="H225" s="14"/>
-      <c r="I225" s="14"/>
-      <c r="J225" s="14"/>
-      <c r="K225" s="14"/>
-      <c r="L225" s="14"/>
-      <c r="M225" s="14"/>
-      <c r="N225" s="14"/>
-      <c r="O225" s="14"/>
-      <c r="P225" s="14"/>
-      <c r="Q225" s="14"/>
-      <c r="R225" s="14"/>
-      <c r="S225" s="14"/>
       <c r="T225" s="6"/>
     </row>
     <row r="226" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
-      <c r="G226" s="14"/>
-      <c r="H226" s="14"/>
-      <c r="I226" s="14"/>
-      <c r="J226" s="14"/>
-      <c r="K226" s="14"/>
-      <c r="L226" s="14"/>
-      <c r="M226" s="14"/>
-      <c r="N226" s="14"/>
-      <c r="O226" s="14"/>
-      <c r="P226" s="14"/>
-      <c r="Q226" s="14"/>
-      <c r="R226" s="14"/>
-      <c r="S226" s="14"/>
       <c r="T226" s="6"/>
     </row>
     <row r="227" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B227" s="5"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="14"/>
-      <c r="H227" s="14"/>
-      <c r="I227" s="14"/>
-      <c r="J227" s="14"/>
-      <c r="K227" s="14"/>
-      <c r="L227" s="14"/>
-      <c r="M227" s="14"/>
-      <c r="N227" s="14"/>
-      <c r="O227" s="14"/>
-      <c r="P227" s="14"/>
-      <c r="Q227" s="14"/>
-      <c r="R227" s="14"/>
-      <c r="S227" s="14"/>
       <c r="T227" s="6"/>
     </row>
     <row r="228" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B228" s="5"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="14"/>
-      <c r="H228" s="14"/>
-      <c r="I228" s="14"/>
-      <c r="J228" s="14"/>
-      <c r="K228" s="14"/>
-      <c r="L228" s="14"/>
-      <c r="M228" s="14"/>
-      <c r="N228" s="14"/>
-      <c r="O228" s="14"/>
-      <c r="P228" s="14"/>
-      <c r="Q228" s="14"/>
-      <c r="R228" s="14"/>
-      <c r="S228" s="14"/>
       <c r="T228" s="6"/>
     </row>
     <row r="229" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="14"/>
-      <c r="H229" s="14"/>
-      <c r="I229" s="14"/>
-      <c r="J229" s="14"/>
-      <c r="K229" s="14"/>
-      <c r="L229" s="14"/>
-      <c r="M229" s="14"/>
-      <c r="N229" s="14"/>
-      <c r="O229" s="14"/>
-      <c r="P229" s="14"/>
-      <c r="Q229" s="14"/>
-      <c r="R229" s="14"/>
-      <c r="S229" s="14"/>
       <c r="T229" s="6"/>
     </row>
     <row r="230" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14"/>
-      <c r="G230" s="14"/>
-      <c r="H230" s="14"/>
-      <c r="I230" s="14"/>
-      <c r="J230" s="14"/>
-      <c r="K230" s="14"/>
-      <c r="L230" s="14"/>
-      <c r="M230" s="14"/>
-      <c r="N230" s="14"/>
-      <c r="O230" s="14"/>
-      <c r="P230" s="14"/>
-      <c r="Q230" s="14"/>
-      <c r="R230" s="14"/>
-      <c r="S230" s="14"/>
       <c r="T230" s="6"/>
     </row>
     <row r="231" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
-      <c r="F231" s="14"/>
-      <c r="G231" s="14"/>
-      <c r="H231" s="14"/>
-      <c r="I231" s="14"/>
-      <c r="J231" s="14"/>
-      <c r="K231" s="14"/>
-      <c r="L231" s="14"/>
-      <c r="M231" s="14"/>
-      <c r="N231" s="14"/>
-      <c r="O231" s="14"/>
-      <c r="P231" s="14"/>
-      <c r="Q231" s="14"/>
-      <c r="R231" s="14"/>
-      <c r="S231" s="14"/>
       <c r="T231" s="6"/>
     </row>
     <row r="232" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
-      <c r="H232" s="14"/>
-      <c r="I232" s="14"/>
-      <c r="J232" s="14"/>
-      <c r="K232" s="14"/>
-      <c r="L232" s="14"/>
-      <c r="M232" s="14"/>
-      <c r="N232" s="14"/>
-      <c r="O232" s="14"/>
-      <c r="P232" s="14"/>
-      <c r="Q232" s="14"/>
-      <c r="R232" s="14"/>
-      <c r="S232" s="14"/>
       <c r="T232" s="6"/>
     </row>
     <row r="233" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
-      <c r="F233" s="14"/>
-      <c r="G233" s="14"/>
-      <c r="H233" s="14"/>
-      <c r="I233" s="14"/>
-      <c r="J233" s="14"/>
-      <c r="K233" s="14"/>
-      <c r="L233" s="14"/>
-      <c r="M233" s="14"/>
-      <c r="N233" s="14"/>
-      <c r="O233" s="14"/>
-      <c r="P233" s="14"/>
-      <c r="Q233" s="14"/>
-      <c r="R233" s="14"/>
-      <c r="S233" s="14"/>
       <c r="T233" s="6"/>
     </row>
     <row r="234" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="14"/>
-      <c r="G234" s="14"/>
-      <c r="H234" s="14"/>
-      <c r="I234" s="14"/>
-      <c r="J234" s="14"/>
-      <c r="K234" s="14"/>
-      <c r="L234" s="14"/>
-      <c r="M234" s="14"/>
-      <c r="N234" s="14"/>
-      <c r="O234" s="14"/>
-      <c r="P234" s="14"/>
-      <c r="Q234" s="14"/>
-      <c r="R234" s="14"/>
-      <c r="S234" s="14"/>
       <c r="T234" s="6"/>
     </row>
     <row r="235" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
-      <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="14"/>
-      <c r="G235" s="14"/>
-      <c r="H235" s="14"/>
-      <c r="I235" s="14"/>
-      <c r="J235" s="14"/>
-      <c r="K235" s="14"/>
-      <c r="L235" s="14"/>
-      <c r="M235" s="14"/>
-      <c r="N235" s="14"/>
-      <c r="O235" s="14"/>
-      <c r="P235" s="14"/>
-      <c r="Q235" s="14"/>
-      <c r="R235" s="14"/>
-      <c r="S235" s="14"/>
       <c r="T235" s="6"/>
     </row>
     <row r="236" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
-      <c r="E236" s="14"/>
-      <c r="F236" s="14"/>
-      <c r="G236" s="14"/>
-      <c r="H236" s="14"/>
-      <c r="I236" s="14"/>
-      <c r="J236" s="14"/>
-      <c r="K236" s="14"/>
-      <c r="L236" s="14"/>
-      <c r="M236" s="14"/>
-      <c r="N236" s="14"/>
-      <c r="O236" s="14"/>
-      <c r="P236" s="14"/>
-      <c r="Q236" s="14"/>
-      <c r="R236" s="14"/>
-      <c r="S236" s="14"/>
       <c r="T236" s="6"/>
     </row>
     <row r="237" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
-      <c r="E237" s="14"/>
-      <c r="F237" s="14"/>
-      <c r="G237" s="14"/>
-      <c r="H237" s="14"/>
-      <c r="I237" s="14"/>
-      <c r="J237" s="14"/>
-      <c r="K237" s="14"/>
-      <c r="L237" s="14"/>
-      <c r="M237" s="14"/>
-      <c r="N237" s="14"/>
-      <c r="O237" s="14"/>
-      <c r="P237" s="14"/>
-      <c r="Q237" s="14"/>
-      <c r="R237" s="14"/>
-      <c r="S237" s="14"/>
       <c r="T237" s="6"/>
     </row>
     <row r="238" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B238" s="5"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
-      <c r="E238" s="14"/>
-      <c r="F238" s="14"/>
-      <c r="G238" s="14"/>
-      <c r="H238" s="14"/>
-      <c r="I238" s="14"/>
-      <c r="J238" s="14"/>
-      <c r="K238" s="14"/>
-      <c r="L238" s="14"/>
-      <c r="M238" s="14"/>
-      <c r="N238" s="14"/>
-      <c r="O238" s="14"/>
-      <c r="P238" s="14"/>
-      <c r="Q238" s="14"/>
-      <c r="R238" s="14"/>
-      <c r="S238" s="14"/>
       <c r="T238" s="6"/>
     </row>
     <row r="239" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
-      <c r="E239" s="14"/>
-      <c r="F239" s="14"/>
-      <c r="G239" s="14"/>
-      <c r="H239" s="14"/>
-      <c r="I239" s="14"/>
-      <c r="J239" s="14"/>
-      <c r="K239" s="14"/>
-      <c r="L239" s="14"/>
-      <c r="M239" s="14"/>
-      <c r="N239" s="14"/>
-      <c r="O239" s="14"/>
-      <c r="P239" s="14"/>
-      <c r="Q239" s="14"/>
-      <c r="R239" s="14"/>
-      <c r="S239" s="14"/>
       <c r="T239" s="6"/>
     </row>
     <row r="240" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="14"/>
-      <c r="G240" s="14"/>
-      <c r="H240" s="14"/>
-      <c r="I240" s="14"/>
-      <c r="J240" s="14"/>
-      <c r="K240" s="14"/>
-      <c r="L240" s="14"/>
-      <c r="M240" s="14"/>
-      <c r="N240" s="14"/>
-      <c r="O240" s="14"/>
-      <c r="P240" s="14"/>
-      <c r="Q240" s="14"/>
-      <c r="R240" s="14"/>
-      <c r="S240" s="14"/>
       <c r="T240" s="6"/>
     </row>
     <row r="241" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B241" s="5"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="14"/>
-      <c r="F241" s="14"/>
-      <c r="G241" s="14"/>
-      <c r="H241" s="14"/>
-      <c r="I241" s="14"/>
-      <c r="J241" s="14"/>
-      <c r="K241" s="14"/>
-      <c r="L241" s="14"/>
-      <c r="M241" s="14"/>
-      <c r="N241" s="14"/>
-      <c r="O241" s="14"/>
-      <c r="P241" s="14"/>
-      <c r="Q241" s="14"/>
-      <c r="R241" s="14"/>
-      <c r="S241" s="14"/>
       <c r="T241" s="6"/>
     </row>
     <row r="242" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B242" s="5"/>
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="14"/>
-      <c r="G242" s="14"/>
-      <c r="H242" s="14"/>
-      <c r="I242" s="14"/>
-      <c r="J242" s="14"/>
-      <c r="K242" s="14"/>
-      <c r="L242" s="14"/>
-      <c r="M242" s="14"/>
-      <c r="N242" s="14"/>
-      <c r="O242" s="14"/>
-      <c r="P242" s="14"/>
-      <c r="Q242" s="14"/>
-      <c r="R242" s="14"/>
-      <c r="S242" s="14"/>
       <c r="T242" s="6"/>
     </row>
     <row r="243" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="14"/>
-      <c r="F243" s="14"/>
-      <c r="G243" s="14"/>
-      <c r="H243" s="14"/>
-      <c r="I243" s="14"/>
-      <c r="J243" s="14"/>
-      <c r="K243" s="14"/>
-      <c r="L243" s="14"/>
-      <c r="M243" s="14"/>
-      <c r="N243" s="14"/>
-      <c r="O243" s="14"/>
-      <c r="P243" s="14"/>
-      <c r="Q243" s="14"/>
-      <c r="R243" s="14"/>
-      <c r="S243" s="14"/>
       <c r="T243" s="6"/>
     </row>
     <row r="244" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
-      <c r="E244" s="14"/>
-      <c r="F244" s="14"/>
-      <c r="G244" s="14"/>
-      <c r="H244" s="14"/>
-      <c r="I244" s="14"/>
-      <c r="J244" s="14"/>
-      <c r="K244" s="14"/>
-      <c r="L244" s="14"/>
-      <c r="M244" s="14"/>
-      <c r="N244" s="14"/>
-      <c r="O244" s="14"/>
-      <c r="P244" s="14"/>
-      <c r="Q244" s="14"/>
-      <c r="R244" s="14"/>
-      <c r="S244" s="14"/>
       <c r="T244" s="6"/>
     </row>
     <row r="245" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
-      <c r="E245" s="14"/>
-      <c r="F245" s="14"/>
-      <c r="G245" s="14"/>
-      <c r="H245" s="14"/>
-      <c r="I245" s="14"/>
-      <c r="J245" s="14"/>
-      <c r="K245" s="14"/>
-      <c r="L245" s="14"/>
-      <c r="M245" s="14"/>
-      <c r="N245" s="14"/>
-      <c r="O245" s="14"/>
-      <c r="P245" s="14"/>
-      <c r="Q245" s="14"/>
-      <c r="R245" s="14"/>
-      <c r="S245" s="14"/>
       <c r="T245" s="6"/>
     </row>
     <row r="246" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="14"/>
-      <c r="G246" s="14"/>
-      <c r="H246" s="14"/>
-      <c r="I246" s="14"/>
-      <c r="J246" s="14"/>
-      <c r="K246" s="14"/>
-      <c r="L246" s="14"/>
-      <c r="M246" s="14"/>
-      <c r="N246" s="14"/>
-      <c r="O246" s="14"/>
-      <c r="P246" s="14"/>
-      <c r="Q246" s="14"/>
-      <c r="R246" s="14"/>
-      <c r="S246" s="14"/>
       <c r="T246" s="6"/>
     </row>
     <row r="247" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
-      <c r="E247" s="14"/>
-      <c r="F247" s="14"/>
-      <c r="G247" s="14"/>
-      <c r="H247" s="14"/>
-      <c r="I247" s="14"/>
-      <c r="J247" s="14"/>
-      <c r="K247" s="14"/>
-      <c r="L247" s="14"/>
-      <c r="M247" s="14"/>
-      <c r="N247" s="14"/>
-      <c r="O247" s="14"/>
-      <c r="P247" s="14"/>
-      <c r="Q247" s="14"/>
-      <c r="R247" s="14"/>
-      <c r="S247" s="14"/>
       <c r="T247" s="6"/>
     </row>
     <row r="248" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B248" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
-      <c r="E248" s="14"/>
-      <c r="F248" s="14"/>
-      <c r="G248" s="14"/>
-      <c r="H248" s="14"/>
-      <c r="I248" s="14"/>
-      <c r="J248" s="14"/>
-      <c r="K248" s="14"/>
-      <c r="L248" s="14"/>
-      <c r="M248" s="14"/>
-      <c r="N248" s="14"/>
-      <c r="O248" s="14"/>
-      <c r="P248" s="14"/>
-      <c r="Q248" s="14"/>
-      <c r="R248" s="14"/>
-      <c r="S248" s="14"/>
       <c r="T248" s="6"/>
     </row>
     <row r="249" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
-      <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
-      <c r="E249" s="14"/>
-      <c r="F249" s="14"/>
-      <c r="G249" s="14"/>
-      <c r="H249" s="14"/>
-      <c r="I249" s="14"/>
-      <c r="J249" s="14"/>
-      <c r="K249" s="14"/>
-      <c r="L249" s="14"/>
-      <c r="M249" s="14"/>
-      <c r="N249" s="14"/>
-      <c r="O249" s="14"/>
-      <c r="P249" s="14"/>
-      <c r="Q249" s="14"/>
-      <c r="R249" s="14"/>
-      <c r="S249" s="14"/>
       <c r="T249" s="6"/>
     </row>
     <row r="250" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
-      <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
-      <c r="E250" s="14"/>
-      <c r="F250" s="14"/>
-      <c r="G250" s="14"/>
-      <c r="H250" s="14"/>
-      <c r="I250" s="14"/>
-      <c r="J250" s="14"/>
-      <c r="K250" s="14"/>
-      <c r="L250" s="14"/>
-      <c r="M250" s="14"/>
-      <c r="N250" s="14"/>
-      <c r="O250" s="14"/>
-      <c r="P250" s="14"/>
-      <c r="Q250" s="14"/>
-      <c r="R250" s="14"/>
-      <c r="S250" s="14"/>
       <c r="T250" s="6"/>
     </row>
     <row r="251" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
-      <c r="E251" s="14"/>
-      <c r="F251" s="14"/>
-      <c r="G251" s="14"/>
-      <c r="H251" s="14"/>
-      <c r="I251" s="14"/>
-      <c r="J251" s="14"/>
-      <c r="K251" s="14"/>
-      <c r="L251" s="14"/>
-      <c r="M251" s="14"/>
-      <c r="N251" s="14"/>
-      <c r="O251" s="14"/>
-      <c r="P251" s="14"/>
-      <c r="Q251" s="14"/>
-      <c r="R251" s="14"/>
-      <c r="S251" s="14"/>
       <c r="T251" s="6"/>
     </row>
     <row r="252" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
-      <c r="E252" s="14"/>
-      <c r="F252" s="14"/>
-      <c r="G252" s="14"/>
-      <c r="H252" s="14"/>
-      <c r="I252" s="14"/>
-      <c r="J252" s="14"/>
-      <c r="K252" s="14"/>
-      <c r="L252" s="14"/>
-      <c r="M252" s="14"/>
-      <c r="N252" s="14"/>
-      <c r="O252" s="14"/>
-      <c r="P252" s="14"/>
-      <c r="Q252" s="14"/>
-      <c r="R252" s="14"/>
-      <c r="S252" s="14"/>
       <c r="T252" s="6"/>
     </row>
     <row r="253" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="14"/>
-      <c r="F253" s="14"/>
-      <c r="G253" s="14"/>
-      <c r="H253" s="14"/>
-      <c r="I253" s="14"/>
-      <c r="J253" s="14"/>
-      <c r="K253" s="14"/>
-      <c r="L253" s="14"/>
-      <c r="M253" s="14"/>
-      <c r="N253" s="14"/>
-      <c r="O253" s="14"/>
-      <c r="P253" s="14"/>
-      <c r="Q253" s="14"/>
-      <c r="R253" s="14"/>
-      <c r="S253" s="14"/>
       <c r="T253" s="6"/>
     </row>
     <row r="254" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B254" s="5"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
-      <c r="E254" s="14"/>
-      <c r="F254" s="14"/>
-      <c r="G254" s="14"/>
-      <c r="H254" s="14"/>
-      <c r="I254" s="14"/>
-      <c r="J254" s="14"/>
-      <c r="K254" s="14"/>
-      <c r="L254" s="14"/>
-      <c r="M254" s="14"/>
-      <c r="N254" s="14"/>
-      <c r="O254" s="14"/>
-      <c r="P254" s="14"/>
-      <c r="Q254" s="14"/>
-      <c r="R254" s="14"/>
-      <c r="S254" s="14"/>
       <c r="T254" s="6"/>
     </row>
     <row r="255" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B255" s="5"/>
-      <c r="C255" s="14"/>
-      <c r="D255" s="14"/>
-      <c r="E255" s="14"/>
-      <c r="F255" s="14"/>
-      <c r="G255" s="14"/>
-      <c r="H255" s="14"/>
-      <c r="I255" s="14"/>
-      <c r="J255" s="14"/>
-      <c r="K255" s="14"/>
-      <c r="L255" s="14"/>
-      <c r="M255" s="14"/>
-      <c r="N255" s="14"/>
-      <c r="O255" s="14"/>
-      <c r="P255" s="14"/>
-      <c r="Q255" s="14"/>
-      <c r="R255" s="14"/>
-      <c r="S255" s="14"/>
       <c r="T255" s="6"/>
     </row>
     <row r="256" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B256" s="5"/>
-      <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
-      <c r="E256" s="14"/>
-      <c r="F256" s="14"/>
-      <c r="G256" s="14"/>
-      <c r="H256" s="14"/>
-      <c r="I256" s="14"/>
-      <c r="J256" s="14"/>
-      <c r="K256" s="14"/>
-      <c r="L256" s="14"/>
-      <c r="M256" s="14"/>
-      <c r="N256" s="14"/>
-      <c r="O256" s="14"/>
-      <c r="P256" s="14"/>
-      <c r="Q256" s="14"/>
-      <c r="R256" s="14"/>
-      <c r="S256" s="14"/>
       <c r="T256" s="6"/>
     </row>
     <row r="257" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B257" s="5"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
-      <c r="E257" s="14"/>
-      <c r="F257" s="14"/>
-      <c r="G257" s="14"/>
-      <c r="H257" s="14"/>
-      <c r="I257" s="14"/>
-      <c r="J257" s="14"/>
-      <c r="K257" s="14"/>
-      <c r="L257" s="14"/>
-      <c r="M257" s="14"/>
-      <c r="N257" s="14"/>
-      <c r="O257" s="14"/>
-      <c r="P257" s="14"/>
-      <c r="Q257" s="14"/>
-      <c r="R257" s="14"/>
-      <c r="S257" s="14"/>
       <c r="T257" s="6"/>
     </row>
     <row r="258" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B258" s="5"/>
-      <c r="C258" s="14"/>
-      <c r="D258" s="14"/>
-      <c r="E258" s="14"/>
-      <c r="F258" s="14"/>
-      <c r="G258" s="14"/>
-      <c r="H258" s="14"/>
-      <c r="I258" s="14"/>
-      <c r="J258" s="14"/>
-      <c r="K258" s="14"/>
-      <c r="L258" s="14"/>
-      <c r="M258" s="14"/>
-      <c r="N258" s="14"/>
-      <c r="O258" s="14"/>
-      <c r="P258" s="14"/>
-      <c r="Q258" s="14"/>
-      <c r="R258" s="14"/>
-      <c r="S258" s="14"/>
       <c r="T258" s="6"/>
     </row>
     <row r="259" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B259" s="5"/>
-      <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
-      <c r="E259" s="14"/>
-      <c r="F259" s="14"/>
-      <c r="G259" s="14"/>
-      <c r="H259" s="14"/>
-      <c r="I259" s="14"/>
-      <c r="J259" s="14"/>
-      <c r="K259" s="14"/>
-      <c r="L259" s="14"/>
-      <c r="M259" s="14"/>
-      <c r="N259" s="14"/>
-      <c r="O259" s="14"/>
-      <c r="P259" s="14"/>
-      <c r="Q259" s="14"/>
-      <c r="R259" s="14"/>
-      <c r="S259" s="14"/>
       <c r="T259" s="6"/>
     </row>
     <row r="260" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B260" s="5"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
-      <c r="E260" s="14"/>
-      <c r="F260" s="14"/>
-      <c r="G260" s="14"/>
-      <c r="H260" s="14"/>
-      <c r="I260" s="14"/>
-      <c r="J260" s="14"/>
-      <c r="K260" s="14"/>
-      <c r="L260" s="14"/>
-      <c r="M260" s="14"/>
-      <c r="N260" s="14"/>
-      <c r="O260" s="14"/>
-      <c r="P260" s="14"/>
-      <c r="Q260" s="14"/>
-      <c r="R260" s="14"/>
-      <c r="S260" s="14"/>
       <c r="T260" s="6"/>
     </row>
     <row r="261" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B261" s="5"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
-      <c r="E261" s="14"/>
-      <c r="F261" s="14"/>
-      <c r="G261" s="14"/>
-      <c r="H261" s="14"/>
-      <c r="I261" s="14"/>
-      <c r="J261" s="14"/>
-      <c r="K261" s="14"/>
-      <c r="L261" s="14"/>
-      <c r="M261" s="14"/>
-      <c r="N261" s="14"/>
-      <c r="O261" s="14"/>
-      <c r="P261" s="14"/>
-      <c r="Q261" s="14"/>
-      <c r="R261" s="14"/>
-      <c r="S261" s="14"/>
       <c r="T261" s="6"/>
     </row>
     <row r="262" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B262" s="5"/>
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
-      <c r="E262" s="14"/>
-      <c r="F262" s="14"/>
-      <c r="G262" s="14"/>
-      <c r="H262" s="14"/>
-      <c r="I262" s="14"/>
-      <c r="J262" s="14"/>
-      <c r="K262" s="14"/>
-      <c r="L262" s="14"/>
-      <c r="M262" s="14"/>
-      <c r="N262" s="14"/>
-      <c r="O262" s="14"/>
-      <c r="P262" s="14"/>
-      <c r="Q262" s="14"/>
-      <c r="R262" s="14"/>
-      <c r="S262" s="14"/>
       <c r="T262" s="6"/>
     </row>
     <row r="263" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B263" s="5"/>
-      <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
-      <c r="E263" s="14"/>
-      <c r="F263" s="14"/>
-      <c r="G263" s="14"/>
-      <c r="H263" s="14"/>
-      <c r="I263" s="14"/>
-      <c r="J263" s="14"/>
-      <c r="K263" s="14"/>
-      <c r="L263" s="14"/>
-      <c r="M263" s="14"/>
-      <c r="N263" s="14"/>
-      <c r="O263" s="14"/>
-      <c r="P263" s="14"/>
-      <c r="Q263" s="14"/>
-      <c r="R263" s="14"/>
-      <c r="S263" s="14"/>
       <c r="T263" s="6"/>
     </row>
     <row r="264" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B264" s="5"/>
-      <c r="C264" s="14"/>
-      <c r="D264" s="14"/>
-      <c r="E264" s="14"/>
-      <c r="F264" s="14"/>
-      <c r="G264" s="14"/>
-      <c r="H264" s="14"/>
-      <c r="I264" s="14"/>
-      <c r="J264" s="14"/>
-      <c r="K264" s="14"/>
-      <c r="L264" s="14"/>
-      <c r="M264" s="14"/>
-      <c r="N264" s="14"/>
-      <c r="O264" s="14"/>
-      <c r="P264" s="14"/>
-      <c r="Q264" s="14"/>
-      <c r="R264" s="14"/>
-      <c r="S264" s="14"/>
       <c r="T264" s="6"/>
     </row>
     <row r="265" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B265" s="5"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="14"/>
-      <c r="G265" s="14"/>
-      <c r="H265" s="14"/>
-      <c r="I265" s="14"/>
-      <c r="J265" s="14"/>
-      <c r="K265" s="14"/>
-      <c r="L265" s="14"/>
-      <c r="M265" s="14"/>
-      <c r="N265" s="14"/>
-      <c r="O265" s="14"/>
-      <c r="P265" s="14"/>
-      <c r="Q265" s="14"/>
-      <c r="R265" s="14"/>
-      <c r="S265" s="14"/>
       <c r="T265" s="6"/>
     </row>
     <row r="266" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B266" s="5"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="14"/>
-      <c r="F266" s="14"/>
-      <c r="G266" s="14"/>
-      <c r="H266" s="14"/>
-      <c r="I266" s="14"/>
-      <c r="J266" s="14"/>
-      <c r="K266" s="14"/>
-      <c r="L266" s="14"/>
-      <c r="M266" s="14"/>
-      <c r="N266" s="14"/>
-      <c r="O266" s="14"/>
-      <c r="P266" s="14"/>
-      <c r="Q266" s="14"/>
-      <c r="R266" s="14"/>
-      <c r="S266" s="14"/>
       <c r="T266" s="6"/>
     </row>
     <row r="267" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B267" s="5"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
-      <c r="E267" s="14"/>
-      <c r="F267" s="14"/>
-      <c r="G267" s="14"/>
-      <c r="H267" s="14"/>
-      <c r="I267" s="14"/>
-      <c r="J267" s="14"/>
-      <c r="K267" s="14"/>
-      <c r="L267" s="14"/>
-      <c r="M267" s="14"/>
-      <c r="N267" s="14"/>
-      <c r="O267" s="14"/>
-      <c r="P267" s="14"/>
-      <c r="Q267" s="14"/>
-      <c r="R267" s="14"/>
-      <c r="S267" s="14"/>
       <c r="T267" s="6"/>
     </row>
     <row r="268" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B268" s="5"/>
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
-      <c r="E268" s="14"/>
-      <c r="F268" s="14"/>
-      <c r="G268" s="14"/>
-      <c r="H268" s="14"/>
-      <c r="I268" s="14"/>
-      <c r="J268" s="14"/>
-      <c r="K268" s="14"/>
-      <c r="L268" s="14"/>
-      <c r="M268" s="14"/>
-      <c r="N268" s="14"/>
-      <c r="O268" s="14"/>
-      <c r="P268" s="14"/>
-      <c r="Q268" s="14"/>
-      <c r="R268" s="14"/>
-      <c r="S268" s="14"/>
       <c r="T268" s="6"/>
     </row>
     <row r="269" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
-      <c r="E269" s="14"/>
-      <c r="F269" s="14"/>
-      <c r="G269" s="14"/>
-      <c r="H269" s="14"/>
-      <c r="I269" s="14"/>
-      <c r="J269" s="14"/>
-      <c r="K269" s="14"/>
-      <c r="L269" s="14"/>
-      <c r="M269" s="14"/>
-      <c r="N269" s="14"/>
-      <c r="O269" s="14"/>
-      <c r="P269" s="14"/>
-      <c r="Q269" s="14"/>
-      <c r="R269" s="14"/>
-      <c r="S269" s="14"/>
       <c r="T269" s="6"/>
     </row>
     <row r="270" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
-      <c r="E270" s="14"/>
-      <c r="F270" s="14"/>
-      <c r="G270" s="14"/>
-      <c r="H270" s="14"/>
-      <c r="I270" s="14"/>
-      <c r="J270" s="14"/>
-      <c r="K270" s="14"/>
-      <c r="L270" s="14"/>
-      <c r="M270" s="14"/>
-      <c r="N270" s="14"/>
-      <c r="O270" s="14"/>
-      <c r="P270" s="14"/>
-      <c r="Q270" s="14"/>
-      <c r="R270" s="14"/>
-      <c r="S270" s="14"/>
       <c r="T270" s="6"/>
     </row>
     <row r="271" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B271" s="5"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
-      <c r="E271" s="14"/>
-      <c r="F271" s="14"/>
-      <c r="G271" s="14"/>
-      <c r="H271" s="14"/>
-      <c r="I271" s="14"/>
-      <c r="J271" s="14"/>
-      <c r="K271" s="14"/>
-      <c r="L271" s="14"/>
-      <c r="M271" s="14"/>
-      <c r="N271" s="14"/>
-      <c r="O271" s="14"/>
-      <c r="P271" s="14"/>
-      <c r="Q271" s="14"/>
-      <c r="R271" s="14"/>
-      <c r="S271" s="14"/>
       <c r="T271" s="6"/>
     </row>
     <row r="272" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
-      <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
-      <c r="E272" s="14"/>
-      <c r="F272" s="14"/>
-      <c r="G272" s="14"/>
-      <c r="H272" s="14"/>
-      <c r="I272" s="14"/>
-      <c r="J272" s="14"/>
-      <c r="K272" s="14"/>
-      <c r="L272" s="14"/>
-      <c r="M272" s="14"/>
-      <c r="N272" s="14"/>
-      <c r="O272" s="14"/>
-      <c r="P272" s="14"/>
-      <c r="Q272" s="14"/>
-      <c r="R272" s="14"/>
-      <c r="S272" s="14"/>
       <c r="T272" s="6"/>
     </row>
     <row r="273" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B273" s="5"/>
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
-      <c r="E273" s="14"/>
-      <c r="F273" s="14"/>
-      <c r="G273" s="14"/>
-      <c r="H273" s="14"/>
-      <c r="I273" s="14"/>
-      <c r="J273" s="14"/>
-      <c r="K273" s="14"/>
-      <c r="L273" s="14"/>
-      <c r="M273" s="14"/>
-      <c r="N273" s="14"/>
-      <c r="O273" s="14"/>
-      <c r="P273" s="14"/>
-      <c r="Q273" s="14"/>
-      <c r="R273" s="14"/>
-      <c r="S273" s="14"/>
       <c r="T273" s="6"/>
     </row>
     <row r="274" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B274" s="5"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
-      <c r="E274" s="14"/>
-      <c r="F274" s="14"/>
-      <c r="G274" s="14"/>
-      <c r="H274" s="14"/>
-      <c r="I274" s="14"/>
-      <c r="J274" s="14"/>
-      <c r="K274" s="14"/>
-      <c r="L274" s="14"/>
-      <c r="M274" s="14"/>
-      <c r="N274" s="14"/>
-      <c r="O274" s="14"/>
-      <c r="P274" s="14"/>
-      <c r="Q274" s="14"/>
-      <c r="R274" s="14"/>
-      <c r="S274" s="14"/>
       <c r="T274" s="6"/>
     </row>
     <row r="275" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B275" s="5"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
-      <c r="E275" s="14"/>
-      <c r="F275" s="14"/>
-      <c r="G275" s="14"/>
-      <c r="H275" s="14"/>
-      <c r="I275" s="14"/>
-      <c r="J275" s="14"/>
-      <c r="K275" s="14"/>
-      <c r="L275" s="14"/>
-      <c r="M275" s="14"/>
-      <c r="N275" s="14"/>
-      <c r="O275" s="14"/>
-      <c r="P275" s="14"/>
-      <c r="Q275" s="14"/>
-      <c r="R275" s="14"/>
-      <c r="S275" s="14"/>
       <c r="T275" s="6"/>
     </row>
     <row r="276" spans="2:20" x14ac:dyDescent="0.25">
@@ -10064,4 +7880,1442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DF480-5E69-41D9-92D4-BAD59ACF8EE2}">
+  <dimension ref="A2:N182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11:Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="H22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="H23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="G25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="H45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="H54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="G55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="H56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="H58" t="s">
+        <v>57</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="H59" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="G60" t="s">
+        <v>59</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="H61" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="H62" t="s">
+        <v>61</v>
+      </c>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="H63" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="G65" t="s">
+        <v>64</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="H66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="H67" t="s">
+        <v>66</v>
+      </c>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="G68" t="s">
+        <v>67</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="H70" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="H71" t="s">
+        <v>70</v>
+      </c>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="H75" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="6"/>
+      <c r="L97" t="s">
+        <v>80</v>
+      </c>
+      <c r="M97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="6"/>
+      <c r="L98" t="s">
+        <v>80</v>
+      </c>
+      <c r="M98" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="6"/>
+      <c r="M99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="6"/>
+      <c r="L100" t="s">
+        <v>80</v>
+      </c>
+      <c r="M100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="6"/>
+      <c r="M101" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="6"/>
+      <c r="L110" t="s">
+        <v>80</v>
+      </c>
+      <c r="M110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="6"/>
+      <c r="L117" t="s">
+        <v>80</v>
+      </c>
+      <c r="M117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="6"/>
+      <c r="L118" t="s">
+        <v>80</v>
+      </c>
+      <c r="M118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="6"/>
+      <c r="L121" t="s">
+        <v>80</v>
+      </c>
+      <c r="M121" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="10"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="6"/>
+      <c r="J143" t="s">
+        <v>80</v>
+      </c>
+      <c r="K143" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="6"/>
+      <c r="J145" t="s">
+        <v>80</v>
+      </c>
+      <c r="K145" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="10"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>